--- a/final_excel/1_e.xlsx
+++ b/final_excel/1_e.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\New proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\isbnlbs\final_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB1EF0AA-0370-45F7-B394-B0C84319DFD1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFF1F07-83AD-4AA0-88F9-12FD56EC893E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="197">
   <si>
     <t>Let Us C++</t>
   </si>
@@ -599,9 +599,6 @@
   </si>
   <si>
     <t>Tata McGraw-Hill Edition</t>
-  </si>
-  <si>
-    <t>DreamLech</t>
   </si>
   <si>
     <t>How to Think Like a Computer Scientist Learning with Python</t>
@@ -985,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1001,19 +998,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1143,8 +1140,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
       </c>
       <c r="F11" t="s">
         <v>3</v>
@@ -1152,13 +1155,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -1166,13 +1169,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
         <v>3</v>
@@ -1180,13 +1183,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
         <v>3</v>
@@ -1194,13 +1197,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
         <v>3</v>
@@ -1208,13 +1211,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
@@ -1222,13 +1225,13 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
         <v>3</v>
@@ -1236,13 +1239,13 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
         <v>3</v>
@@ -1250,13 +1253,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
@@ -1264,13 +1267,13 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
         <v>3</v>
@@ -1278,13 +1281,13 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
@@ -1292,13 +1295,13 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
         <v>3</v>
@@ -1306,27 +1309,27 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
         <v>59</v>
@@ -1334,13 +1337,13 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
@@ -1348,13 +1351,13 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
         <v>59</v>
@@ -1362,13 +1365,13 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
         <v>59</v>
@@ -1376,13 +1379,13 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
         <v>59</v>
@@ -1390,13 +1393,10 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
         <v>59</v>
@@ -1404,10 +1404,13 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>74</v>
       </c>
       <c r="F30" t="s">
         <v>59</v>
@@ -1415,13 +1418,13 @@
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F31" t="s">
         <v>59</v>
@@ -1429,13 +1432,13 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>59</v>
@@ -1443,13 +1446,13 @@
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
         <v>59</v>
@@ -1457,13 +1460,13 @@
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
         <v>59</v>
@@ -1471,13 +1474,13 @@
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D35" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
         <v>59</v>
@@ -1485,13 +1488,10 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s">
         <v>59</v>
@@ -1499,10 +1499,13 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="D37" t="s">
+        <v>89</v>
       </c>
       <c r="F37" t="s">
         <v>59</v>
@@ -1510,13 +1513,13 @@
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F38" t="s">
         <v>59</v>
@@ -1524,13 +1527,13 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F39" t="s">
         <v>59</v>
@@ -1538,13 +1541,13 @@
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C40" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
         <v>59</v>
@@ -1552,27 +1555,27 @@
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D42" t="s">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s">
         <v>101</v>
@@ -1580,13 +1583,13 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F43" t="s">
         <v>101</v>
@@ -1594,13 +1597,13 @@
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F44" t="s">
         <v>101</v>
@@ -1608,13 +1611,13 @@
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F45" t="s">
         <v>101</v>
@@ -1622,13 +1625,13 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C46" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F46" t="s">
         <v>101</v>
@@ -1636,13 +1639,13 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F47" t="s">
         <v>101</v>
@@ -1650,13 +1653,13 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F48" t="s">
         <v>101</v>
@@ -1664,13 +1667,13 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F49" t="s">
         <v>101</v>
@@ -1678,13 +1681,13 @@
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F50" t="s">
         <v>101</v>
@@ -1692,13 +1695,13 @@
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F51" t="s">
         <v>101</v>
@@ -1706,13 +1709,13 @@
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C52" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F52" t="s">
         <v>101</v>
@@ -1720,13 +1723,13 @@
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F53" t="s">
         <v>101</v>
@@ -1734,13 +1737,13 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D54" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
         <v>101</v>
@@ -1748,13 +1751,13 @@
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="F55" t="s">
         <v>101</v>
@@ -1762,13 +1765,13 @@
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F56" t="s">
         <v>101</v>
@@ -1776,41 +1779,41 @@
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
-      </c>
-      <c r="F57" t="s">
-        <v>101</v>
+        <v>144</v>
+      </c>
+      <c r="F57">
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D58" t="s">
-        <v>144</v>
-      </c>
-      <c r="F58">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="F58" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="F59" t="s">
         <v>101</v>
@@ -1818,13 +1821,13 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="F60" t="s">
         <v>101</v>
@@ -1832,13 +1835,13 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F61" t="s">
         <v>101</v>
@@ -1846,13 +1849,13 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F62" t="s">
         <v>101</v>
@@ -1860,13 +1863,13 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F63" t="s">
         <v>101</v>
@@ -1874,13 +1877,13 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D64" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="F64" t="s">
         <v>101</v>
@@ -1888,63 +1891,63 @@
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C65" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D65" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="F65" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" t="s">
-        <v>163</v>
-      </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="F66" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>167</v>
+      </c>
       <c r="C67" t="s">
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F67" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
-        <v>167</v>
-      </c>
       <c r="C68" t="s">
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F68" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>167</v>
+      </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="D69" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F69" t="s">
         <v>166</v>
@@ -1952,13 +1955,13 @@
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F70" t="s">
         <v>166</v>
@@ -1966,13 +1969,13 @@
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D71" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F71" t="s">
         <v>166</v>
@@ -1980,13 +1983,13 @@
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F72" t="s">
         <v>166</v>
@@ -1994,13 +1997,13 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C73" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D73" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F73" t="s">
         <v>166</v>
@@ -2008,27 +2011,27 @@
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D74" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F74" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C75" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="F75" t="s">
         <v>185</v>
@@ -2036,13 +2039,13 @@
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="F76" t="s">
         <v>185</v>
@@ -2050,54 +2053,29 @@
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D77" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="F77" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>190</v>
+      </c>
       <c r="C78" t="s">
         <v>20</v>
       </c>
       <c r="D78" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F78" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>186</v>
-      </c>
-      <c r="C79" t="s">
-        <v>169</v>
-      </c>
-      <c r="D79" t="s">
-        <v>168</v>
-      </c>
-      <c r="F79" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B80" t="s">
-        <v>191</v>
-      </c>
-      <c r="C80" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" t="s">
-        <v>192</v>
-      </c>
-      <c r="F80" t="s">
         <v>185</v>
       </c>
     </row>

--- a/final_excel/1_e.xlsx
+++ b/final_excel/1_e.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\PycharmProjects\isbnlbs\final_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DFF1F07-83AD-4AA0-88F9-12FD56EC893E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32ADFC84-7002-4F1A-AAAD-7F82509F1FC3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -982,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,7 +996,7 @@
     <col min="5" max="5" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>192</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1023,11 +1023,11 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1037,11 +1037,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -1051,11 +1051,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1065,11 +1065,11 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -1079,11 +1079,11 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>16</v>
       </c>
@@ -1093,11 +1093,11 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>19</v>
       </c>
@@ -1107,11 +1107,11 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" t="s">
+      <c r="E8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1121,11 +1121,11 @@
       <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -1135,11 +1135,11 @@
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>28</v>
       </c>
@@ -1149,11 +1149,11 @@
       <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -1163,11 +1163,11 @@
       <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>33</v>
       </c>
@@ -1177,11 +1177,11 @@
       <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -1191,11 +1191,11 @@
       <c r="D14" t="s">
         <v>35</v>
       </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>36</v>
       </c>
@@ -1205,11 +1205,11 @@
       <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="F15" t="s">
+      <c r="E15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -1219,11 +1219,11 @@
       <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>41</v>
       </c>
@@ -1233,11 +1233,11 @@
       <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>44</v>
       </c>
@@ -1247,11 +1247,11 @@
       <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>45</v>
       </c>
@@ -1261,11 +1261,11 @@
       <c r="D19" t="s">
         <v>47</v>
       </c>
-      <c r="F19" t="s">
+      <c r="E19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>48</v>
       </c>
@@ -1275,11 +1275,11 @@
       <c r="D20" t="s">
         <v>50</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>51</v>
       </c>
@@ -1289,11 +1289,11 @@
       <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>53</v>
       </c>
@@ -1303,11 +1303,11 @@
       <c r="D22" t="s">
         <v>55</v>
       </c>
-      <c r="F22" t="s">
+      <c r="E22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>56</v>
       </c>
@@ -1317,11 +1317,11 @@
       <c r="D23" t="s">
         <v>58</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>60</v>
       </c>
@@ -1331,11 +1331,11 @@
       <c r="D24" t="s">
         <v>62</v>
       </c>
-      <c r="F24" t="s">
+      <c r="E24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>63</v>
       </c>
@@ -1345,11 +1345,11 @@
       <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>65</v>
       </c>
@@ -1359,11 +1359,11 @@
       <c r="D26" t="s">
         <v>66</v>
       </c>
-      <c r="F26" t="s">
+      <c r="E26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>67</v>
       </c>
@@ -1373,11 +1373,11 @@
       <c r="D27" t="s">
         <v>68</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>69</v>
       </c>
@@ -1387,22 +1387,22 @@
       <c r="D28" t="s">
         <v>62</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>70</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
       </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>72</v>
       </c>
@@ -1412,11 +1412,11 @@
       <c r="D30" t="s">
         <v>74</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>38</v>
       </c>
@@ -1426,11 +1426,11 @@
       <c r="D31" t="s">
         <v>76</v>
       </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>77</v>
       </c>
@@ -1440,11 +1440,11 @@
       <c r="D32" t="s">
         <v>2</v>
       </c>
-      <c r="F32" t="s">
+      <c r="E32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>79</v>
       </c>
@@ -1454,11 +1454,11 @@
       <c r="D33" t="s">
         <v>81</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>82</v>
       </c>
@@ -1468,11 +1468,11 @@
       <c r="D34" t="s">
         <v>83</v>
       </c>
-      <c r="F34" t="s">
+      <c r="E34" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>84</v>
       </c>
@@ -1482,22 +1482,22 @@
       <c r="D35" t="s">
         <v>62</v>
       </c>
-      <c r="F35" t="s">
+      <c r="E35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
         <v>85</v>
       </c>
       <c r="C36" t="s">
         <v>86</v>
       </c>
-      <c r="F36" t="s">
+      <c r="E36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
         <v>87</v>
       </c>
@@ -1507,11 +1507,11 @@
       <c r="D37" t="s">
         <v>89</v>
       </c>
-      <c r="F37" t="s">
+      <c r="E37" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>90</v>
       </c>
@@ -1521,11 +1521,11 @@
       <c r="D38" t="s">
         <v>92</v>
       </c>
-      <c r="F38" t="s">
+      <c r="E38" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>93</v>
       </c>
@@ -1535,11 +1535,11 @@
       <c r="D39" t="s">
         <v>95</v>
       </c>
-      <c r="F39" t="s">
+      <c r="E39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
         <v>96</v>
       </c>
@@ -1549,11 +1549,11 @@
       <c r="D40" t="s">
         <v>98</v>
       </c>
-      <c r="F40" t="s">
+      <c r="E40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>99</v>
       </c>
@@ -1563,11 +1563,11 @@
       <c r="D41" t="s">
         <v>2</v>
       </c>
-      <c r="F41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>102</v>
       </c>
@@ -1577,11 +1577,11 @@
       <c r="D42" t="s">
         <v>104</v>
       </c>
-      <c r="F42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>105</v>
       </c>
@@ -1591,11 +1591,11 @@
       <c r="D43" t="s">
         <v>107</v>
       </c>
-      <c r="F43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>108</v>
       </c>
@@ -1605,11 +1605,11 @@
       <c r="D44" t="s">
         <v>109</v>
       </c>
-      <c r="F44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
         <v>110</v>
       </c>
@@ -1619,11 +1619,11 @@
       <c r="D45" t="s">
         <v>111</v>
       </c>
-      <c r="F45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
         <v>112</v>
       </c>
@@ -1633,11 +1633,11 @@
       <c r="D46" t="s">
         <v>114</v>
       </c>
-      <c r="F46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
         <v>115</v>
       </c>
@@ -1647,11 +1647,11 @@
       <c r="D47" t="s">
         <v>117</v>
       </c>
-      <c r="F47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
         <v>118</v>
       </c>
@@ -1661,11 +1661,11 @@
       <c r="D48" t="s">
         <v>119</v>
       </c>
-      <c r="F48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>120</v>
       </c>
@@ -1675,11 +1675,11 @@
       <c r="D49" t="s">
         <v>122</v>
       </c>
-      <c r="F49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>123</v>
       </c>
@@ -1689,11 +1689,11 @@
       <c r="D50" t="s">
         <v>125</v>
       </c>
-      <c r="F50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
         <v>126</v>
       </c>
@@ -1703,11 +1703,11 @@
       <c r="D51" t="s">
         <v>128</v>
       </c>
-      <c r="F51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>129</v>
       </c>
@@ -1717,11 +1717,11 @@
       <c r="D52" t="s">
         <v>130</v>
       </c>
-      <c r="F52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>131</v>
       </c>
@@ -1731,11 +1731,11 @@
       <c r="D53" t="s">
         <v>133</v>
       </c>
-      <c r="F53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
         <v>134</v>
       </c>
@@ -1745,11 +1745,11 @@
       <c r="D54" t="s">
         <v>40</v>
       </c>
-      <c r="F54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>136</v>
       </c>
@@ -1759,11 +1759,11 @@
       <c r="D55" t="s">
         <v>138</v>
       </c>
-      <c r="F55" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
         <v>139</v>
       </c>
@@ -1773,11 +1773,11 @@
       <c r="D56" t="s">
         <v>141</v>
       </c>
-      <c r="F56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>142</v>
       </c>
@@ -1787,11 +1787,11 @@
       <c r="D57" t="s">
         <v>144</v>
       </c>
-      <c r="F57">
+      <c r="E57">
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>145</v>
       </c>
@@ -1801,11 +1801,11 @@
       <c r="D58" t="s">
         <v>32</v>
       </c>
-      <c r="F58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
         <v>147</v>
       </c>
@@ -1815,11 +1815,11 @@
       <c r="D59" t="s">
         <v>122</v>
       </c>
-      <c r="F59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>149</v>
       </c>
@@ -1829,11 +1829,11 @@
       <c r="D60" t="s">
         <v>151</v>
       </c>
-      <c r="F60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>152</v>
       </c>
@@ -1843,11 +1843,11 @@
       <c r="D61" t="s">
         <v>154</v>
       </c>
-      <c r="F61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>155</v>
       </c>
@@ -1857,11 +1857,11 @@
       <c r="D62" t="s">
         <v>157</v>
       </c>
-      <c r="F62" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
         <v>158</v>
       </c>
@@ -1871,11 +1871,11 @@
       <c r="D63" t="s">
         <v>151</v>
       </c>
-      <c r="F63" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
         <v>160</v>
       </c>
@@ -1885,11 +1885,11 @@
       <c r="D64" t="s">
         <v>162</v>
       </c>
-      <c r="F64" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>163</v>
       </c>
@@ -1899,22 +1899,22 @@
       <c r="D65" t="s">
         <v>144</v>
       </c>
-      <c r="F65" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>20</v>
       </c>
       <c r="D66" t="s">
         <v>165</v>
       </c>
-      <c r="F66" t="s">
+      <c r="E66" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
         <v>167</v>
       </c>
@@ -1924,22 +1924,22 @@
       <c r="D67" t="s">
         <v>168</v>
       </c>
-      <c r="F67" t="s">
+      <c r="E67" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>20</v>
       </c>
       <c r="D68" t="s">
         <v>165</v>
       </c>
-      <c r="F68" t="s">
+      <c r="E68" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
         <v>167</v>
       </c>
@@ -1949,11 +1949,11 @@
       <c r="D69" t="s">
         <v>170</v>
       </c>
-      <c r="F69" t="s">
+      <c r="E69" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
         <v>171</v>
       </c>
@@ -1963,11 +1963,11 @@
       <c r="D70" t="s">
         <v>173</v>
       </c>
-      <c r="F70" t="s">
+      <c r="E70" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
         <v>174</v>
       </c>
@@ -1977,11 +1977,11 @@
       <c r="D71" t="s">
         <v>176</v>
       </c>
-      <c r="F71" t="s">
+      <c r="E71" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
         <v>177</v>
       </c>
@@ -1991,11 +1991,11 @@
       <c r="D72" t="s">
         <v>179</v>
       </c>
-      <c r="F72" t="s">
+      <c r="E72" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
         <v>180</v>
       </c>
@@ -2005,11 +2005,11 @@
       <c r="D73" t="s">
         <v>181</v>
       </c>
-      <c r="F73" t="s">
+      <c r="E73" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>182</v>
       </c>
@@ -2019,11 +2019,11 @@
       <c r="D74" t="s">
         <v>184</v>
       </c>
-      <c r="F74" t="s">
+      <c r="E74" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>186</v>
       </c>
@@ -2033,11 +2033,11 @@
       <c r="D75" t="s">
         <v>165</v>
       </c>
-      <c r="F75" t="s">
+      <c r="E75" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>187</v>
       </c>
@@ -2047,11 +2047,11 @@
       <c r="D76" t="s">
         <v>189</v>
       </c>
-      <c r="F76" t="s">
+      <c r="E76" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>186</v>
       </c>
@@ -2061,11 +2061,11 @@
       <c r="D77" t="s">
         <v>168</v>
       </c>
-      <c r="F77" t="s">
+      <c r="E77" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
         <v>190</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="D78" t="s">
         <v>191</v>
       </c>
-      <c r="F78" t="s">
+      <c r="E78" t="s">
         <v>185</v>
       </c>
     </row>
